--- a/input_formation.xlsx
+++ b/input_formation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOONHA\GitHub\WorldCup\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4D4154-20D7-490C-873C-E4A2F54C63D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841E5DEB-7575-4D56-94CE-F4E695055F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{114973B0-1A19-4218-A1FA-D2177BE7CAEF}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66829B0A-D6A2-4A36-A740-75A21ADB3F16}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -806,38 +806,104 @@
       <c r="N2">
         <v>20</v>
       </c>
+      <c r="O2">
+        <v>110</v>
+      </c>
+      <c r="P2">
+        <v>111</v>
+      </c>
+      <c r="Q2">
+        <v>112</v>
+      </c>
+      <c r="R2">
+        <v>113</v>
+      </c>
+      <c r="S2">
+        <v>114</v>
+      </c>
+      <c r="T2">
+        <v>115</v>
+      </c>
+      <c r="U2">
+        <v>116</v>
+      </c>
+      <c r="V2">
+        <v>117</v>
+      </c>
+      <c r="W2">
+        <v>118</v>
+      </c>
+      <c r="X2">
+        <v>119</v>
+      </c>
+      <c r="Y2">
+        <v>120</v>
+      </c>
       <c r="Z2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AA2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AB2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AC2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AD2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AE2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AF2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AG2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AH2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AI2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AJ2">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="AK2">
+        <v>130</v>
+      </c>
+      <c r="AL2">
+        <v>131</v>
+      </c>
+      <c r="AM2">
+        <v>132</v>
+      </c>
+      <c r="AN2">
+        <v>133</v>
+      </c>
+      <c r="AO2">
+        <v>134</v>
+      </c>
+      <c r="AP2">
+        <v>135</v>
+      </c>
+      <c r="AQ2">
+        <v>136</v>
+      </c>
+      <c r="AR2">
+        <v>137</v>
+      </c>
+      <c r="AS2">
+        <v>138</v>
+      </c>
+      <c r="AT2">
+        <v>139</v>
+      </c>
+      <c r="AU2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/input_formation.xlsx
+++ b/input_formation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOONHA\GitHub\WorldCup\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841E5DEB-7575-4D56-94CE-F4E695055F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEACFACC-F4B1-46F0-9E60-79D0BE7623BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{114973B0-1A19-4218-A1FA-D2177BE7CAEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>neutral</t>
   </si>
@@ -225,6 +225,20 @@
   <si>
     <t>away_G1_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>away_team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Scotland</t>
   </si>
 </sst>
 </file>
@@ -606,21 +620,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66829B0A-D6A2-4A36-A740-75A21ADB3F16}">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,281 +642,293 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:49">
       <c r="A2" t="b">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>16</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>17</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>18</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>19</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>110</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>111</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>112</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>113</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>114</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>115</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>116</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>117</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>118</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>119</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>120</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>30</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>31</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>32</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>33</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>34</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>35</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>36</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>37</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>38</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>39</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>40</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>130</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>131</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>132</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>133</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>134</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>135</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>136</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>137</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>138</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>139</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>140</v>
       </c>
     </row>

--- a/input_formation.xlsx
+++ b/input_formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOONHA\GitHub\WorldCup\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEACFACC-F4B1-46F0-9E60-79D0BE7623BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E53B2D-CDE4-4A9A-970A-79AB3F935AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{114973B0-1A19-4218-A1FA-D2177BE7CAEF}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{114973B0-1A19-4218-A1FA-D2177BE7CAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
